--- a/F+/Assets/Resources/DataTable/WeaponTable/WeaponTable.xlsx
+++ b/F+/Assets/Resources/DataTable/WeaponTable/WeaponTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1"/>
@@ -51,6 +51,13 @@
   </si>
   <si>
     <t>きんぞくバット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素手</t>
+    <rPh sb="0" eb="2">
+      <t>スデ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -381,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -411,16 +418,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.85">
@@ -428,15 +435,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>3</v>
       </c>
     </row>
